--- a/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,22 +604,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,72; 16,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,92; 374,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,22 +684,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-14,73</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,04; 10,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 15,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,52; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>61,55%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 16,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,34; 319,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -924,27 +924,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,48; 27,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,22; 615,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 7,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 4,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1122,22 +1122,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 7,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,76; 97,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1148,6 +1148,13 @@
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,1%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-0.7713007941943545</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.05102099253849091</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; 16,77</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-72,92; 374,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.72489815595609</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.7291699971823119</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.7656559397848</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>3.746541521076928</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-14,73</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-58,67%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-59,04; 10,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-14.72651128808843</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.5867225602414162</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>113,45%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-59.04123599530882</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 15,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-59,52; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.54022886940654</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +731,129 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>61,55%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.484476611367112</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.134531248498064</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 16,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-44,34; 319,88</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.156940586131955</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.5951938854774799</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.93268207155796</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>81,81%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 27,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-61,22; 615,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C13" s="5" t="n">
+        <v>6.199773648707536</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.291452881670511</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.6155235303487445</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-53,84%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-13,16%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.31397562860363</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4433529756622132</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,95; 7,76</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 4,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.67280643774139</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="n">
+        <v>7.626430337667511</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3.198811166138979</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +861,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,09%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>58,8%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+      <c r="C16" s="5" t="n">
+        <v>8.175190766727335</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.068789833383325</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.8181113389959976</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 7,42</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 1,12</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,71</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-45,76; 97,61</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.483306359777819</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>-0.6122210471477173</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>27.12845632717298</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.51726378151392</v>
+      </c>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>6.15475780032943</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-4.819960671766833</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-1.309440346677166</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.538374043252268</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2886709549029755</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-21.95234602522841</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-17.05944271655242</v>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>7.759479610813423</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>6.66421283082738</v>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.9781773114396208</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.170986715795844</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5468728679028826</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.08089250325883636</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.4379858940189927</v>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.336869243977944</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.079586841765626</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.4575573586426564</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.421456519096433</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.089647444320558</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.780088549086693</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.9760508079910372</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1070,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
